--- a/reconstruction-tools-assessment/supplementary material/S23_table.xlsx
+++ b/reconstruction-tools-assessment/supplementary material/S23_table.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Research_Projects\Review_reconstruction\manuscript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Research_Projects\Review_reconstruction\manuscript\supplementary material\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D016F1-548F-45A1-BA11-8E0B3C2DB733}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9402"/>
+    <workbookView xWindow="4140" yWindow="984" windowWidth="17280" windowHeight="9444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S23 Table" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -222,7 +228,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -576,11 +582,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="58" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -709,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="F4">
         <v>528</v>
@@ -718,13 +724,13 @@
         <v>809</v>
       </c>
       <c r="H4">
-        <v>515</v>
+        <v>244</v>
       </c>
       <c r="I4">
-        <v>237</v>
+        <v>524</v>
       </c>
       <c r="J4">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="K4">
         <v>542</v>
@@ -742,7 +748,7 @@
         <v>542</v>
       </c>
       <c r="P4">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="Q4">
         <v>615</v>
@@ -795,7 +801,7 @@
       </c>
       <c r="AG4">
         <f>MAX(C4:AE4)</f>
-        <v>996</v>
+        <v>999</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.55000000000000004">
@@ -803,7 +809,7 @@
         <v>32</v>
       </c>
       <c r="B5">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5">
         <v>321</v>
@@ -845,7 +851,7 @@
         <v>258</v>
       </c>
       <c r="P5">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="Q5">
         <v>36</v>
@@ -924,10 +930,10 @@
         <v>7</v>
       </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>3</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
       </c>
       <c r="J6">
         <v>8</v>
@@ -1008,94 +1014,94 @@
       <c r="A7" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>0.17069486404833836</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>1.3071895424836602E-2</v>
       </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.47448015122873344</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0.51960784313725494</v>
+      </c>
+      <c r="F7">
         <v>0.59593679458239279</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>0.64104595879556259</v>
       </c>
-      <c r="H7" s="1">
-        <v>0.47862453531598514</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.45315487571701724</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.52476290832455219</v>
-      </c>
-      <c r="K7" s="1">
+      <c r="H7">
+        <v>0.46387832699619774</v>
+      </c>
+      <c r="I7">
+        <v>0.50191570881226055</v>
+      </c>
+      <c r="J7">
+        <v>0.53565683646112605</v>
+      </c>
+      <c r="K7">
         <v>0.52266152362584373</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7">
         <v>0.45998383185125302</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7">
         <v>0.61578947368421055</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7">
         <v>0.62260127931769726</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7">
         <v>0.52266152362584373</v>
       </c>
-      <c r="P7" s="1">
-        <v>0.46165884194053208</v>
-      </c>
-      <c r="Q7" s="1">
+      <c r="P7">
+        <v>0.47261345852895148</v>
+      </c>
+      <c r="Q7">
         <v>0.49516908212560384</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7">
         <v>0.50490196078431371</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7">
         <v>0.50048971596474046</v>
       </c>
-      <c r="T7" s="1">
+      <c r="T7">
         <v>0.51212121212121209</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7">
         <v>0.50183486238532105</v>
       </c>
-      <c r="V7" s="1">
+      <c r="V7">
         <v>0.49954170485792848</v>
       </c>
-      <c r="W7" s="1">
+      <c r="W7">
         <v>0.5074626865671642</v>
       </c>
-      <c r="X7" s="1">
+      <c r="X7">
         <v>0.7098943323727186</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Y7">
         <v>0.70756457564575648</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="Z7">
         <v>0.71034482758620687</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AA7">
         <v>0.69693094629156005</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AB7">
         <v>0.70554493307839383</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AC7">
         <v>0.48739495798319327</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AD7">
         <v>0.57559055118110236</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AE7">
         <v>0.57849961330239752</v>
       </c>
       <c r="AF7" s="1">
@@ -1111,94 +1117,94 @@
       <c r="A8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.19335347432024169</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8">
+        <v>0.19184290030211482</v>
+      </c>
+      <c r="C8">
         <v>0.29971988795518206</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>0.31278331822302813</v>
       </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>1.128668171557562E-3</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
         <v>2.694136291600634E-2</v>
       </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>0.24879459980713597</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8">
         <v>0.39692805173807599</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8">
         <v>9.2631578947368426E-2</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8">
         <v>7.0362473347547971E-2</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8">
         <v>0.24879459980713597</v>
       </c>
-      <c r="P8" s="1">
-        <v>7.82472613458529E-2</v>
-      </c>
-      <c r="Q8" s="1">
+      <c r="P8">
+        <v>9.3114241001564943E-2</v>
+      </c>
+      <c r="Q8">
         <v>2.8985507246376812E-2</v>
       </c>
-      <c r="R8" s="1">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1">
-        <v>0</v>
-      </c>
-      <c r="T8" s="1">
-        <v>0</v>
-      </c>
-      <c r="U8" s="1">
-        <v>0</v>
-      </c>
-      <c r="V8" s="1">
-        <v>0</v>
-      </c>
-      <c r="W8" s="1">
-        <v>0</v>
-      </c>
-      <c r="X8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="1">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
         <v>9.5275590551181108E-2</v>
       </c>
-      <c r="AE8" s="1">
+      <c r="AE8">
         <v>9.5127610208816701E-2</v>
       </c>
       <c r="AF8" s="1">
@@ -1214,94 +1220,94 @@
       <c r="A9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>1.5105740181268882E-3</v>
       </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>2.257336343115124E-3</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
         <v>5.5467511885895406E-3</v>
       </c>
-      <c r="H9" s="1">
-        <v>2.7881040892193307E-3</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>4.2149631190727078E-3</v>
-      </c>
-      <c r="K9" s="1">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>2.8735632183908046E-3</v>
+      </c>
+      <c r="J9">
+        <v>4.2895442359249334E-3</v>
+      </c>
+      <c r="K9">
         <v>1.253616200578592E-2</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9">
         <v>9.7008892481810841E-3</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9">
         <v>1.368421052631579E-2</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9">
         <v>1.3859275053304905E-2</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9">
         <v>1.253616200578592E-2</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9">
         <v>7.0422535211267607E-3</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9">
         <v>7.246376811594203E-3</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9">
         <v>2.9411764705882353E-3</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9">
         <v>2.9382957884427031E-3</v>
       </c>
-      <c r="T9" s="1">
+      <c r="T9">
         <v>3.0303030303030303E-3</v>
       </c>
-      <c r="U9" s="1">
+      <c r="U9">
         <v>2.7522935779816515E-3</v>
       </c>
-      <c r="V9" s="1">
+      <c r="V9">
         <v>2.7497708524289641E-3</v>
       </c>
-      <c r="W9" s="1">
+      <c r="W9">
         <v>2.798507462686567E-3</v>
       </c>
-      <c r="X9" s="1">
+      <c r="X9">
         <v>8.645533141210375E-2</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="Y9">
         <v>8.4870848708487087E-2</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="Z9">
         <v>8.2758620689655171E-2</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AA9">
         <v>3.9641943734015347E-2</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AB9">
         <v>8.6042065009560229E-2</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AC9">
         <v>6.0024009603841539E-3</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AD9">
         <v>2.2834645669291338E-2</v>
       </c>
-      <c r="AE9" s="1">
+      <c r="AE9">
         <v>2.1655065738592421E-2</v>
       </c>
       <c r="AF9" s="1">
@@ -1636,7 +1642,7 @@
         <v>12</v>
       </c>
       <c r="E13">
-        <v>9.0499999999999545</v>
+        <v>9</v>
       </c>
       <c r="F13">
         <v>10</v>
@@ -1645,10 +1651,10 @@
         <v>9</v>
       </c>
       <c r="H13">
+        <v>9.1999999999999886</v>
+      </c>
+      <c r="I13">
         <v>11</v>
-      </c>
-      <c r="I13">
-        <v>9.3499999999999659</v>
       </c>
       <c r="J13">
         <v>11</v>
@@ -1739,7 +1745,7 @@
         <v>83.470000000000027</v>
       </c>
       <c r="E14">
-        <v>59.890000000000327</v>
+        <v>56.599999999999795</v>
       </c>
       <c r="F14">
         <v>48.679999999999836</v>
@@ -1748,13 +1754,13 @@
         <v>47.879999999999882</v>
       </c>
       <c r="H14">
-        <v>77.440000000000055</v>
+        <v>59.960000000000036</v>
       </c>
       <c r="I14">
-        <v>60.079999999999927</v>
+        <v>71.059999999999945</v>
       </c>
       <c r="J14">
-        <v>53.599999999999909</v>
+        <v>55.249999999999545</v>
       </c>
       <c r="K14">
         <v>60.429999999998699</v>
@@ -2063,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="J17">
-        <v>5.7000000000000455</v>
+        <v>6</v>
       </c>
       <c r="K17">
         <v>5</v>
@@ -2151,7 +2157,7 @@
         <v>9</v>
       </c>
       <c r="E18">
-        <v>8.0499999999999545</v>
+        <v>8</v>
       </c>
       <c r="F18">
         <v>7</v>
@@ -2160,10 +2166,10 @@
         <v>7</v>
       </c>
       <c r="H18">
-        <v>7</v>
+        <v>8.1999999999999886</v>
       </c>
       <c r="I18">
-        <v>8.3499999999999659</v>
+        <v>7.2999999999999545</v>
       </c>
       <c r="J18">
         <v>8</v>
@@ -2254,7 +2260,7 @@
         <v>40.940000000000055</v>
       </c>
       <c r="E19">
-        <v>44.730000000000473</v>
+        <v>44.199999999999818</v>
       </c>
       <c r="F19">
         <v>35.279999999999973</v>
@@ -2263,13 +2269,13 @@
         <v>25.759999999999764</v>
       </c>
       <c r="H19">
-        <v>37.480000000000018</v>
+        <v>45.120000000000118</v>
       </c>
       <c r="I19">
-        <v>45.509999999999764</v>
+        <v>38.239999999999782</v>
       </c>
       <c r="J19">
-        <v>26.559999999999945</v>
+        <v>27.549999999999727</v>
       </c>
       <c r="K19">
         <v>29.649999999999409</v>
@@ -2563,7 +2569,7 @@
         <v>6</v>
       </c>
       <c r="E22">
-        <v>5.6000000000000227</v>
+        <v>6</v>
       </c>
       <c r="F22">
         <v>5</v>
@@ -2572,7 +2578,7 @@
         <v>5</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>5.9000000000000341</v>
       </c>
       <c r="I22">
         <v>6</v>
@@ -2760,7 +2766,7 @@
         <v>51</v>
       </c>
       <c r="B24">
-        <v>26</v>
+        <v>26.879999999999995</v>
       </c>
       <c r="C24">
         <v>28.789999999999964</v>
@@ -2769,7 +2775,7 @@
         <v>31.350000000000136</v>
       </c>
       <c r="E24">
-        <v>20.420000000000073</v>
+        <v>20</v>
       </c>
       <c r="F24">
         <v>24.559999999999945</v>
@@ -2778,13 +2784,13 @@
         <v>24.879999999999882</v>
       </c>
       <c r="H24">
-        <v>25.740000000000009</v>
+        <v>20.240000000000009</v>
       </c>
       <c r="I24">
-        <v>20.269999999999982</v>
+        <v>26.179999999999836</v>
       </c>
       <c r="J24">
-        <v>32.559999999999945</v>
+        <v>33.399999999999636</v>
       </c>
       <c r="K24">
         <v>21</v>
@@ -2855,7 +2861,7 @@
       </c>
       <c r="AG24">
         <f t="shared" si="1"/>
-        <v>32.559999999999945</v>
+        <v>33.399999999999636</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.55000000000000004">
